--- a/ExcelFiles/SuiteC.xlsx
+++ b/ExcelFiles/SuiteC.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="SAYAN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>TestCases</t>
   </si>
@@ -120,6 +121,60 @@
   </si>
   <si>
     <t>C36</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Element1</t>
+  </si>
+  <si>
+    <t>Element2</t>
+  </si>
+  <si>
+    <t>Element3</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>HASAN</t>
+  </si>
+  <si>
+    <t>sayan</t>
+  </si>
+  <si>
+    <t>test134</t>
+  </si>
+  <si>
+    <t>yahoo13</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value0</t>
+  </si>
+  <si>
+    <t>value3</t>
+  </si>
+  <si>
+    <t>value5</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>vaalue6</t>
   </si>
 </sst>
 </file>
@@ -502,12 +557,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -523,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -531,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -539,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -547,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -565,18 +620,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -593,7 +648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -607,7 +662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -621,7 +676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -635,12 +690,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -660,7 +715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -674,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -688,7 +743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -702,12 +757,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -730,7 +785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -750,7 +805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -760,7 +815,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -776,7 +831,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -784,7 +839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -792,12 +847,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -823,7 +878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -846,7 +901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -869,7 +924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -890,6 +945,82 @@
       </c>
       <c r="H26" t="s">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
